--- a/Gannt.xlsx
+++ b/Gannt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicasangam/Documents/2019Spring/Masters Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehmet\Documents\GitHub\capstone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34948D05-FC9C-B744-91F5-2CB0BD393A18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="2160" windowWidth="21580" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -69,26 +68,29 @@
     <t>Test the Knime analytics to use this data</t>
   </si>
   <si>
-    <t>Convert the QVX data into Knime Data ??</t>
-  </si>
-  <si>
-    <t>Integrate the adapter in Knime ??</t>
-  </si>
-  <si>
     <t>QVXReader class (research, design, implementation, prototype, refactoring, test output 2D Array)</t>
   </si>
   <si>
     <t>QVXWriter class (research, design, implementation, prototype, refactoring, test output 2D Array)</t>
+  </si>
+  <si>
+    <t>Monica/Matthew</t>
+  </si>
+  <si>
+    <t>Convert the QVX data into Knime Data</t>
+  </si>
+  <si>
+    <t>Integrate the adapter in Knime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,15 +100,18 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,18 +119,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -136,19 +135,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,24 +202,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,156 +532,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="98.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.1640625" customWidth="1"/>
+    <col min="3" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
